--- a/processed_ICD_codes/Schnitzer_et_al_2011_ICD_crossmapping_for_appendix_with_codes_and_descriptions.xlsx
+++ b/processed_ICD_codes/Schnitzer_et_al_2011_ICD_crossmapping_for_appendix_with_codes_and_descriptions.xlsx
@@ -89,7 +89,7 @@
     <t xml:space="preserve">V71.81</t>
   </si>
   <si>
-    <t xml:space="preserve">NA</t>
+    <t xml:space="preserve">N/A</t>
   </si>
   <si>
     <t xml:space="preserve">No ICD-9 code for Observation for abuse/neglect</t>
@@ -500,13 +500,13 @@
     <t xml:space="preserve">comments_icd9</t>
   </si>
   <si>
-    <t xml:space="preserve">icd_10</t>
-  </si>
-  <si>
     <t xml:space="preserve">comments_icd10</t>
   </si>
   <si>
     <t xml:space="preserve">767</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">P10-P15,P52.4,P52.6,P52.8,P52.9</t>
@@ -2485,264 +2485,1378 @@
         <v>159</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>160</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>161</v>
-      </c>
-      <c r="F1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>163</v>
+      <c r="B2" t="n">
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2"/>
+        <v>162</v>
+      </c>
+      <c r="D2" t="s">
+        <v>162</v>
+      </c>
       <c r="E2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" t="s">
         <v>164</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>166</v>
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3"/>
+        <v>162</v>
+      </c>
+      <c r="D3" t="s">
+        <v>162</v>
+      </c>
       <c r="E3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F3" t="s">
-        <v>168</v>
+        <v>164</v>
+      </c>
+      <c r="G3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>169</v>
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F4"/>
+        <v>163</v>
+      </c>
+      <c r="F4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>173</v>
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D5"/>
+        <v>162</v>
+      </c>
+      <c r="D5" t="s">
+        <v>162</v>
+      </c>
       <c r="E5" t="s">
-        <v>174</v>
-      </c>
-      <c r="F5"/>
+        <v>163</v>
+      </c>
+      <c r="F5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>175</v>
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D6"/>
+        <v>162</v>
+      </c>
+      <c r="D6" t="s">
+        <v>162</v>
+      </c>
       <c r="E6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F6"/>
+        <v>163</v>
+      </c>
+      <c r="F6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>177</v>
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D7" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="E7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F7"/>
+        <v>163</v>
+      </c>
+      <c r="F7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>181</v>
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D8"/>
+        <v>166</v>
+      </c>
+      <c r="D8" t="s">
+        <v>166</v>
+      </c>
       <c r="E8" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
-        <v>183</v>
+        <v>167</v>
+      </c>
+      <c r="G8" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>184</v>
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D9"/>
+        <v>166</v>
+      </c>
+      <c r="D9" t="s">
+        <v>166</v>
+      </c>
       <c r="E9" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
-        <v>186</v>
+        <v>167</v>
+      </c>
+      <c r="G9" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>187</v>
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
-      </c>
-      <c r="D10"/>
+        <v>166</v>
+      </c>
+      <c r="D10" t="s">
+        <v>166</v>
+      </c>
       <c r="E10" t="s">
-        <v>188</v>
-      </c>
-      <c r="F10"/>
+        <v>163</v>
+      </c>
+      <c r="F10" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>189</v>
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D11"/>
+        <v>166</v>
+      </c>
+      <c r="D11" t="s">
+        <v>166</v>
+      </c>
       <c r="E11" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="F11" t="s">
-        <v>191</v>
+        <v>167</v>
+      </c>
+      <c r="G11" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>192</v>
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>192</v>
-      </c>
-      <c r="D12"/>
+        <v>169</v>
+      </c>
+      <c r="D12" t="s">
+        <v>170</v>
+      </c>
       <c r="E12" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="F12" t="s">
-        <v>194</v>
+        <v>172</v>
+      </c>
+      <c r="G12" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>195</v>
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>195</v>
-      </c>
-      <c r="D13"/>
+        <v>173</v>
+      </c>
+      <c r="D13" t="s">
+        <v>173</v>
+      </c>
       <c r="E13" t="s">
-        <v>196</v>
-      </c>
-      <c r="F13"/>
+        <v>163</v>
+      </c>
+      <c r="F13" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>197</v>
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="D14" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="E14" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="F14" t="s">
-        <v>201</v>
+        <v>176</v>
+      </c>
+      <c r="G14" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F15" t="s">
+        <v>180</v>
+      </c>
+      <c r="G15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>6</v>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" t="s">
+        <v>180</v>
+      </c>
+      <c r="G16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E17" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>6</v>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" t="s">
+        <v>179</v>
+      </c>
+      <c r="F18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>6</v>
+      </c>
+      <c r="B19" t="n">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7</v>
+      </c>
+      <c r="B20" t="n">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" t="s">
+        <v>181</v>
+      </c>
+      <c r="E20" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>7</v>
+      </c>
+      <c r="B21" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E21" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" t="s">
+        <v>163</v>
+      </c>
+      <c r="F23" t="s">
+        <v>185</v>
+      </c>
+      <c r="G23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>8</v>
+      </c>
+      <c r="B24" t="n">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" t="s">
+        <v>184</v>
+      </c>
+      <c r="E24" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>8</v>
+      </c>
+      <c r="B25" t="n">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" t="s">
+        <v>184</v>
+      </c>
+      <c r="E25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" t="s">
+        <v>185</v>
+      </c>
+      <c r="G25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>9</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" t="s">
+        <v>188</v>
+      </c>
+      <c r="G26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>9</v>
+      </c>
+      <c r="B27" t="n">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" t="s">
+        <v>187</v>
+      </c>
+      <c r="E27" t="s">
+        <v>163</v>
+      </c>
+      <c r="F27" t="s">
+        <v>188</v>
+      </c>
+      <c r="G27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>9</v>
+      </c>
+      <c r="B28" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" t="s">
+        <v>187</v>
+      </c>
+      <c r="E28" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>9</v>
+      </c>
+      <c r="B29" t="n">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" t="s">
+        <v>187</v>
+      </c>
+      <c r="E29" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" t="s">
+        <v>188</v>
+      </c>
+      <c r="G29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>9</v>
+      </c>
+      <c r="B30" t="n">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" t="s">
+        <v>187</v>
+      </c>
+      <c r="E30" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" t="s">
+        <v>188</v>
+      </c>
+      <c r="G30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>10</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" t="s">
+        <v>189</v>
+      </c>
+      <c r="E31" t="s">
+        <v>163</v>
+      </c>
+      <c r="F31" t="s">
+        <v>190</v>
+      </c>
+      <c r="G31" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>10</v>
+      </c>
+      <c r="B32" t="n">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D32" t="s">
+        <v>189</v>
+      </c>
+      <c r="E32" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" t="s">
+        <v>190</v>
+      </c>
+      <c r="G32" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>11</v>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>192</v>
+      </c>
+      <c r="D33" t="s">
+        <v>192</v>
+      </c>
+      <c r="E33" t="s">
+        <v>163</v>
+      </c>
+      <c r="F33" t="s">
+        <v>193</v>
+      </c>
+      <c r="G33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>11</v>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E34" t="s">
+        <v>163</v>
+      </c>
+      <c r="F34" t="s">
+        <v>193</v>
+      </c>
+      <c r="G34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>11</v>
+      </c>
+      <c r="B35" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>192</v>
+      </c>
+      <c r="D35" t="s">
+        <v>192</v>
+      </c>
+      <c r="E35" t="s">
+        <v>163</v>
+      </c>
+      <c r="F35" t="s">
+        <v>193</v>
+      </c>
+      <c r="G35" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>11</v>
+      </c>
+      <c r="B36" t="n">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>192</v>
+      </c>
+      <c r="D36" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36" t="s">
+        <v>163</v>
+      </c>
+      <c r="F36" t="s">
+        <v>193</v>
+      </c>
+      <c r="G36" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>12</v>
+      </c>
+      <c r="B37" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>195</v>
+      </c>
+      <c r="D37" t="s">
+        <v>195</v>
+      </c>
+      <c r="E37" t="s">
+        <v>163</v>
+      </c>
+      <c r="F37" t="s">
+        <v>196</v>
+      </c>
+      <c r="G37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>13</v>
+      </c>
+      <c r="B38" t="n">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D38" t="s">
+        <v>198</v>
+      </c>
+      <c r="E38" t="s">
+        <v>199</v>
+      </c>
+      <c r="F38" t="s">
+        <v>200</v>
+      </c>
+      <c r="G38" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>13</v>
+      </c>
+      <c r="B39" t="n">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39" t="s">
+        <v>198</v>
+      </c>
+      <c r="E39" t="s">
+        <v>199</v>
+      </c>
+      <c r="F39" t="s">
+        <v>200</v>
+      </c>
+      <c r="G39" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>13</v>
+      </c>
+      <c r="B40" t="n">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" t="s">
+        <v>199</v>
+      </c>
+      <c r="F40" t="s">
+        <v>200</v>
+      </c>
+      <c r="G40" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>13</v>
+      </c>
+      <c r="B41" t="n">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>197</v>
+      </c>
+      <c r="D41" t="s">
+        <v>198</v>
+      </c>
+      <c r="E41" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41" t="s">
+        <v>200</v>
+      </c>
+      <c r="G41" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>13</v>
+      </c>
+      <c r="B42" t="n">
+        <v>26</v>
+      </c>
+      <c r="C42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D42" t="s">
+        <v>198</v>
+      </c>
+      <c r="E42" t="s">
+        <v>199</v>
+      </c>
+      <c r="F42" t="s">
+        <v>200</v>
+      </c>
+      <c r="G42" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>14</v>
+      </c>
+      <c r="B43" t="n">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
         <v>202</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D43" t="s">
         <v>202</v>
       </c>
-      <c r="D15"/>
-      <c r="E15" t="s">
+      <c r="E43" t="s">
+        <v>163</v>
+      </c>
+      <c r="F43" t="s">
         <v>203</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G43" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>14</v>
+      </c>
+      <c r="B44" t="n">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>202</v>
+      </c>
+      <c r="D44" t="s">
+        <v>202</v>
+      </c>
+      <c r="E44" t="s">
+        <v>163</v>
+      </c>
+      <c r="F44" t="s">
+        <v>203</v>
+      </c>
+      <c r="G44" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>14</v>
+      </c>
+      <c r="B45" t="n">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>202</v>
+      </c>
+      <c r="D45" t="s">
+        <v>202</v>
+      </c>
+      <c r="E45" t="s">
+        <v>163</v>
+      </c>
+      <c r="F45" t="s">
+        <v>203</v>
+      </c>
+      <c r="G45" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>14</v>
+      </c>
+      <c r="B46" t="n">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>202</v>
+      </c>
+      <c r="D46" t="s">
+        <v>202</v>
+      </c>
+      <c r="E46" t="s">
+        <v>163</v>
+      </c>
+      <c r="F46" t="s">
+        <v>203</v>
+      </c>
+      <c r="G46" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>14</v>
+      </c>
+      <c r="B47" t="n">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>202</v>
+      </c>
+      <c r="D47" t="s">
+        <v>202</v>
+      </c>
+      <c r="E47" t="s">
+        <v>163</v>
+      </c>
+      <c r="F47" t="s">
+        <v>203</v>
+      </c>
+      <c r="G47" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>14</v>
+      </c>
+      <c r="B48" t="n">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>202</v>
+      </c>
+      <c r="D48" t="s">
+        <v>202</v>
+      </c>
+      <c r="E48" t="s">
+        <v>163</v>
+      </c>
+      <c r="F48" t="s">
+        <v>203</v>
+      </c>
+      <c r="G48" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>14</v>
+      </c>
+      <c r="B49" t="n">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>202</v>
+      </c>
+      <c r="D49" t="s">
+        <v>202</v>
+      </c>
+      <c r="E49" t="s">
+        <v>163</v>
+      </c>
+      <c r="F49" t="s">
+        <v>203</v>
+      </c>
+      <c r="G49" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>14</v>
+      </c>
+      <c r="B50" t="n">
+        <v>17</v>
+      </c>
+      <c r="C50" t="s">
+        <v>202</v>
+      </c>
+      <c r="D50" t="s">
+        <v>202</v>
+      </c>
+      <c r="E50" t="s">
+        <v>163</v>
+      </c>
+      <c r="F50" t="s">
+        <v>203</v>
+      </c>
+      <c r="G50" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>14</v>
+      </c>
+      <c r="B51" t="n">
+        <v>18</v>
+      </c>
+      <c r="C51" t="s">
+        <v>202</v>
+      </c>
+      <c r="D51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E51" t="s">
+        <v>163</v>
+      </c>
+      <c r="F51" t="s">
+        <v>203</v>
+      </c>
+      <c r="G51" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>14</v>
+      </c>
+      <c r="B52" t="n">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s">
+        <v>202</v>
+      </c>
+      <c r="D52" t="s">
+        <v>202</v>
+      </c>
+      <c r="E52" t="s">
+        <v>163</v>
+      </c>
+      <c r="F52" t="s">
+        <v>203</v>
+      </c>
+      <c r="G52" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>14</v>
+      </c>
+      <c r="B53" t="n">
+        <v>20</v>
+      </c>
+      <c r="C53" t="s">
+        <v>202</v>
+      </c>
+      <c r="D53" t="s">
+        <v>202</v>
+      </c>
+      <c r="E53" t="s">
+        <v>163</v>
+      </c>
+      <c r="F53" t="s">
+        <v>203</v>
+      </c>
+      <c r="G53" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>14</v>
+      </c>
+      <c r="B54" t="n">
+        <v>21</v>
+      </c>
+      <c r="C54" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54" t="s">
+        <v>202</v>
+      </c>
+      <c r="E54" t="s">
+        <v>163</v>
+      </c>
+      <c r="F54" t="s">
+        <v>203</v>
+      </c>
+      <c r="G54" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>14</v>
+      </c>
+      <c r="B55" t="n">
+        <v>26</v>
+      </c>
+      <c r="C55" t="s">
+        <v>202</v>
+      </c>
+      <c r="D55" t="s">
+        <v>202</v>
+      </c>
+      <c r="E55" t="s">
+        <v>163</v>
+      </c>
+      <c r="F55" t="s">
+        <v>203</v>
+      </c>
+      <c r="G55" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>14</v>
+      </c>
+      <c r="B56" t="n">
+        <v>27</v>
+      </c>
+      <c r="C56" t="s">
+        <v>202</v>
+      </c>
+      <c r="D56" t="s">
+        <v>202</v>
+      </c>
+      <c r="E56" t="s">
+        <v>163</v>
+      </c>
+      <c r="F56" t="s">
+        <v>203</v>
+      </c>
+      <c r="G56" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>14</v>
+      </c>
+      <c r="B57" t="n">
+        <v>28</v>
+      </c>
+      <c r="C57" t="s">
+        <v>202</v>
+      </c>
+      <c r="D57" t="s">
+        <v>202</v>
+      </c>
+      <c r="E57" t="s">
+        <v>163</v>
+      </c>
+      <c r="F57" t="s">
+        <v>203</v>
+      </c>
+      <c r="G57" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>14</v>
+      </c>
+      <c r="B58" t="n">
+        <v>29</v>
+      </c>
+      <c r="C58" t="s">
+        <v>202</v>
+      </c>
+      <c r="D58" t="s">
+        <v>202</v>
+      </c>
+      <c r="E58" t="s">
+        <v>163</v>
+      </c>
+      <c r="F58" t="s">
+        <v>203</v>
+      </c>
+      <c r="G58" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>14</v>
+      </c>
+      <c r="B59" t="n">
+        <v>30</v>
+      </c>
+      <c r="C59" t="s">
+        <v>202</v>
+      </c>
+      <c r="D59" t="s">
+        <v>202</v>
+      </c>
+      <c r="E59" t="s">
+        <v>163</v>
+      </c>
+      <c r="F59" t="s">
+        <v>203</v>
+      </c>
+      <c r="G59" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>14</v>
+      </c>
+      <c r="B60" t="n">
+        <v>31</v>
+      </c>
+      <c r="C60" t="s">
+        <v>202</v>
+      </c>
+      <c r="D60" t="s">
+        <v>202</v>
+      </c>
+      <c r="E60" t="s">
+        <v>163</v>
+      </c>
+      <c r="F60" t="s">
+        <v>203</v>
+      </c>
+      <c r="G60" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2780,7 +3894,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2">
@@ -2796,7 +3910,9 @@
       <c r="D2" t="s">
         <v>207</v>
       </c>
-      <c r="E2"/>
+      <c r="E2" t="s">
+        <v>163</v>
+      </c>
       <c r="F2" t="s">
         <v>208</v>
       </c>
@@ -2817,7 +3933,9 @@
       <c r="D3" t="s">
         <v>212</v>
       </c>
-      <c r="E3"/>
+      <c r="E3" t="s">
+        <v>163</v>
+      </c>
       <c r="F3" t="s">
         <v>213</v>
       </c>
@@ -2838,7 +3956,9 @@
       <c r="D4" t="s">
         <v>217</v>
       </c>
-      <c r="E4"/>
+      <c r="E4" t="s">
+        <v>163</v>
+      </c>
       <c r="F4" t="s">
         <v>218</v>
       </c>
@@ -2859,11 +3979,15 @@
       <c r="D5" t="s">
         <v>222</v>
       </c>
-      <c r="E5"/>
+      <c r="E5" t="s">
+        <v>163</v>
+      </c>
       <c r="F5" t="s">
         <v>223</v>
       </c>
-      <c r="G5"/>
+      <c r="G5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2878,11 +4002,15 @@
       <c r="D6" t="s">
         <v>226</v>
       </c>
-      <c r="E6"/>
+      <c r="E6" t="s">
+        <v>163</v>
+      </c>
       <c r="F6" t="s">
         <v>227</v>
       </c>
-      <c r="G6"/>
+      <c r="G6" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -2897,7 +4025,9 @@
       <c r="D7" t="s">
         <v>230</v>
       </c>
-      <c r="E7"/>
+      <c r="E7" t="s">
+        <v>163</v>
+      </c>
       <c r="F7" t="s">
         <v>231</v>
       </c>
@@ -2918,11 +4048,15 @@
       <c r="D8" t="s">
         <v>235</v>
       </c>
-      <c r="E8"/>
+      <c r="E8" t="s">
+        <v>163</v>
+      </c>
       <c r="F8" t="s">
         <v>236</v>
       </c>
-      <c r="G8"/>
+      <c r="G8" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -2937,7 +4071,9 @@
       <c r="D9" t="s">
         <v>239</v>
       </c>
-      <c r="E9"/>
+      <c r="E9" t="s">
+        <v>163</v>
+      </c>
       <c r="F9" t="s">
         <v>240</v>
       </c>
@@ -2958,7 +4094,9 @@
       <c r="D10" t="s">
         <v>244</v>
       </c>
-      <c r="E10"/>
+      <c r="E10" t="s">
+        <v>163</v>
+      </c>
       <c r="F10" t="s">
         <v>245</v>
       </c>
@@ -2979,7 +4117,9 @@
       <c r="D11" t="s">
         <v>249</v>
       </c>
-      <c r="E11"/>
+      <c r="E11" t="s">
+        <v>163</v>
+      </c>
       <c r="F11" t="s">
         <v>250</v>
       </c>
@@ -3000,11 +4140,15 @@
       <c r="D12" t="s">
         <v>253</v>
       </c>
-      <c r="E12"/>
+      <c r="E12" t="s">
+        <v>163</v>
+      </c>
       <c r="F12" t="s">
         <v>254</v>
       </c>
-      <c r="G12"/>
+      <c r="G12" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -3025,7 +4169,9 @@
       <c r="F13" t="s">
         <v>259</v>
       </c>
-      <c r="G13"/>
+      <c r="G13" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -3040,11 +4186,15 @@
       <c r="D14" t="s">
         <v>261</v>
       </c>
-      <c r="E14"/>
+      <c r="E14" t="s">
+        <v>163</v>
+      </c>
       <c r="F14" t="s">
         <v>262</v>
       </c>
-      <c r="G14"/>
+      <c r="G14" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -3059,7 +4209,9 @@
       <c r="D15" t="s">
         <v>265</v>
       </c>
-      <c r="E15"/>
+      <c r="E15" t="s">
+        <v>163</v>
+      </c>
       <c r="F15" t="s">
         <v>266</v>
       </c>
@@ -3080,11 +4232,15 @@
       <c r="D16" t="s">
         <v>269</v>
       </c>
-      <c r="E16"/>
+      <c r="E16" t="s">
+        <v>163</v>
+      </c>
       <c r="F16" t="s">
         <v>270</v>
       </c>
-      <c r="G16"/>
+      <c r="G16" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -3099,7 +4255,9 @@
       <c r="D17" t="s">
         <v>273</v>
       </c>
-      <c r="E17"/>
+      <c r="E17" t="s">
+        <v>163</v>
+      </c>
       <c r="F17" t="s">
         <v>274</v>
       </c>
@@ -3120,11 +4278,15 @@
       <c r="D18" t="s">
         <v>278</v>
       </c>
-      <c r="E18"/>
+      <c r="E18" t="s">
+        <v>163</v>
+      </c>
       <c r="F18" t="s">
         <v>279</v>
       </c>
-      <c r="G18"/>
+      <c r="G18" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -3162,7 +4324,9 @@
       <c r="D20" t="s">
         <v>288</v>
       </c>
-      <c r="E20"/>
+      <c r="E20" t="s">
+        <v>163</v>
+      </c>
       <c r="F20" t="s">
         <v>289</v>
       </c>
@@ -3183,7 +4347,9 @@
       <c r="D21" t="s">
         <v>293</v>
       </c>
-      <c r="E21"/>
+      <c r="E21" t="s">
+        <v>163</v>
+      </c>
       <c r="F21" t="s">
         <v>294</v>
       </c>
@@ -3204,7 +4370,9 @@
       <c r="D22" t="s">
         <v>298</v>
       </c>
-      <c r="E22"/>
+      <c r="E22" t="s">
+        <v>163</v>
+      </c>
       <c r="F22" t="s">
         <v>299</v>
       </c>
@@ -3225,7 +4393,9 @@
       <c r="D23" t="s">
         <v>302</v>
       </c>
-      <c r="E23"/>
+      <c r="E23" t="s">
+        <v>163</v>
+      </c>
       <c r="F23" t="s">
         <v>303</v>
       </c>
@@ -3246,7 +4416,9 @@
       <c r="D24" t="s">
         <v>307</v>
       </c>
-      <c r="E24"/>
+      <c r="E24" t="s">
+        <v>163</v>
+      </c>
       <c r="F24" t="s">
         <v>308</v>
       </c>
@@ -3267,11 +4439,15 @@
       <c r="D25" t="s">
         <v>311</v>
       </c>
-      <c r="E25"/>
+      <c r="E25" t="s">
+        <v>163</v>
+      </c>
       <c r="F25" t="s">
         <v>312</v>
       </c>
-      <c r="G25"/>
+      <c r="G25" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -3309,11 +4485,15 @@
       <c r="D27" t="s">
         <v>320</v>
       </c>
-      <c r="E27"/>
+      <c r="E27" t="s">
+        <v>163</v>
+      </c>
       <c r="F27" t="s">
         <v>321</v>
       </c>
-      <c r="G27"/>
+      <c r="G27" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -3328,7 +4508,9 @@
       <c r="D28" t="s">
         <v>324</v>
       </c>
-      <c r="E28"/>
+      <c r="E28" t="s">
+        <v>163</v>
+      </c>
       <c r="F28" t="s">
         <v>325</v>
       </c>
@@ -3372,7 +4554,9 @@
       <c r="D30" t="s">
         <v>335</v>
       </c>
-      <c r="E30"/>
+      <c r="E30" t="s">
+        <v>163</v>
+      </c>
       <c r="F30" t="s">
         <v>336</v>
       </c>
@@ -3393,11 +4577,15 @@
       <c r="D31" t="s">
         <v>340</v>
       </c>
-      <c r="E31"/>
+      <c r="E31" t="s">
+        <v>163</v>
+      </c>
       <c r="F31" t="s">
         <v>341</v>
       </c>
-      <c r="G31"/>
+      <c r="G31" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -3412,11 +4600,15 @@
       <c r="D32" t="s">
         <v>343</v>
       </c>
-      <c r="E32"/>
+      <c r="E32" t="s">
+        <v>163</v>
+      </c>
       <c r="F32" t="s">
         <v>344</v>
       </c>
-      <c r="G32"/>
+      <c r="G32" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -3431,11 +4623,15 @@
       <c r="D33" t="s">
         <v>346</v>
       </c>
-      <c r="E33"/>
+      <c r="E33" t="s">
+        <v>163</v>
+      </c>
       <c r="F33" t="s">
         <v>347</v>
       </c>
-      <c r="G33"/>
+      <c r="G33" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -3450,11 +4646,15 @@
       <c r="D34" t="s">
         <v>350</v>
       </c>
-      <c r="E34"/>
+      <c r="E34" t="s">
+        <v>163</v>
+      </c>
       <c r="F34" t="s">
         <v>351</v>
       </c>
-      <c r="G34"/>
+      <c r="G34" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -3492,7 +4692,9 @@
       <c r="D36" t="s">
         <v>359</v>
       </c>
-      <c r="E36"/>
+      <c r="E36" t="s">
+        <v>163</v>
+      </c>
       <c r="F36" t="s">
         <v>360</v>
       </c>
@@ -3513,11 +4715,15 @@
       <c r="D37" t="s">
         <v>363</v>
       </c>
-      <c r="E37"/>
+      <c r="E37" t="s">
+        <v>163</v>
+      </c>
       <c r="F37" t="s">
         <v>364</v>
       </c>
-      <c r="G37"/>
+      <c r="G37" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -3532,11 +4738,15 @@
       <c r="D38" t="s">
         <v>367</v>
       </c>
-      <c r="E38"/>
+      <c r="E38" t="s">
+        <v>163</v>
+      </c>
       <c r="F38" t="s">
         <v>368</v>
       </c>
-      <c r="G38"/>
+      <c r="G38" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -3580,7 +4790,9 @@
       <c r="F40" t="s">
         <v>379</v>
       </c>
-      <c r="G40"/>
+      <c r="G40" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -3595,11 +4807,15 @@
       <c r="D41" t="s">
         <v>382</v>
       </c>
-      <c r="E41"/>
+      <c r="E41" t="s">
+        <v>163</v>
+      </c>
       <c r="F41" t="s">
         <v>383</v>
       </c>
-      <c r="G41"/>
+      <c r="G41" t="s">
+        <v>163</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3632,7 +4848,7 @@
         <v>160</v>
       </c>
       <c r="F1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2">
@@ -3648,7 +4864,9 @@
       <c r="D2" t="s">
         <v>386</v>
       </c>
-      <c r="E2"/>
+      <c r="E2" t="s">
+        <v>163</v>
+      </c>
       <c r="F2" t="s">
         <v>387</v>
       </c>
@@ -3666,8 +4884,12 @@
       <c r="D3" t="s">
         <v>390</v>
       </c>
-      <c r="E3"/>
-      <c r="F3"/>
+      <c r="E3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -3682,7 +4904,9 @@
       <c r="D4" t="s">
         <v>393</v>
       </c>
-      <c r="E4"/>
+      <c r="E4" t="s">
+        <v>163</v>
+      </c>
       <c r="F4" t="s">
         <v>394</v>
       </c>
@@ -3700,8 +4924,12 @@
       <c r="D5" t="s">
         <v>396</v>
       </c>
-      <c r="E5"/>
-      <c r="F5"/>
+      <c r="E5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -3716,8 +4944,12 @@
       <c r="D6" t="s">
         <v>398</v>
       </c>
-      <c r="E6"/>
-      <c r="F6"/>
+      <c r="E6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" t="s">
+        <v>163</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/processed_ICD_codes/Schnitzer_et_al_2011_ICD_crossmapping_for_appendix_with_codes_and_descriptions.xlsx
+++ b/processed_ICD_codes/Schnitzer_et_al_2011_ICD_crossmapping_for_appendix_with_codes_and_descriptions.xlsx
@@ -1,1225 +1,1232 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\napier\CHASe\CHASe-outside-safe-haven\processed_ICD_codes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1783B792-E56A-4275-8D7A-87FBD586677D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-24120" yWindow="0" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="inclusions" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="exclusions" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="malnutrition_exclusions" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="additional_requirements" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="inclusions" sheetId="1" r:id="rId1"/>
+    <sheet name="exclusions" sheetId="2" r:id="rId2"/>
+    <sheet name="malnutrition_exclusions" sheetId="3" r:id="rId3"/>
+    <sheet name="additional_requirements" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="399">
-  <si>
-    <t xml:space="preserve">condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inclusion_index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">icd9cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">icd9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment_icd9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">icd10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment_icd10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genital herpes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">054.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gonococcal infection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pelvic inflammatory disease, unspecified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">614.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N73.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contusion of genital organs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">922.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S30.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observation after alleged rape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V71.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z04.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observation for abuse/neglect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V71.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No ICD-9 code for Observation for abuse/neglect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No ICD-10 code for Observation and evaluation for abuse and neglect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retinal hemorrhage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">362.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No ICD-9 code for Retinal haemorrhage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H35.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rib fracture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">807.0, 807.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S22.30, S22.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scapula fracture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S42.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traumatic subdural hemorrhage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">852.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S06.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other/unspecified intracranial hemorrhage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">853.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S06.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stomach injury</t>
-  </si>
-  <si>
-    <t xml:space="preserve">863.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S36.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assault</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E965, E966, E968.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X93-X96, X99, Y00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assault, NOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E968.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Undetermined intent, other means</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y19,Y26,Y27,Y31-Y34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Several 4th digit level diagnoses in ICD-9 are 3-character codes in ICD-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skull vault fracture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S02.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vertebral fracture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S12.0,S12.1,S12.2,S12.7,S12.9,S22.0,S22.1,S32.0,S32.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICD-9 doesn't specify location of fractured vertebrae, so we need to pick out all possibilities in ICD-10; included are multiple fractures of spine as these will involve vertebrae fractures also</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traumatic subarachnoid hemorrhage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">852.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S06.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intrathoracic injury, NEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S277-S279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICD-9 code 862 excludes pneumo/hemothorax, whereas ICD-10 combines pneumo/hemothorax with intrathoracic injuries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Small intestine injury</t>
-  </si>
-  <si>
-    <t xml:space="preserve">863.2, 863.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S36.40, S36.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spleen injury</t>
-  </si>
-  <si>
-    <t xml:space="preserve">865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S36.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spinal cord injury</t>
-  </si>
-  <si>
-    <t xml:space="preserve">952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S14.0,S14.1,S24.0,S24.1,S34.0,S34.1,T06.0,T06.1,T09.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICD-9 specifies location of spinal cord lesion at 4th digit level, whereas in ICD-10 spinal cord injuries at different locations have their own 3-character codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other severe malnutrition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dental caries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">521.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solar radiation dermatitis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">692.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L57.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pelvic fracture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S32.1-S32.8,T02.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in ICD-9, pelvis fractures are grouped under a single code; in ICD-10 they are combined with lumbar spine injuries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traumatic pneumohemothorax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">860</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S27.0-S27.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see note above on pneumo/hemothorax and intrathoracic injuries above</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heart or lung injury</t>
-  </si>
-  <si>
-    <t xml:space="preserve">861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S26, S27.3-S27.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICD-9 specified heart &amp; lung injuries in single code; ICD-10 has separate codes, but also see note above about intrathoracic injuries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GI injury, NEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">863.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S36.2,S36.8,S36.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICD-9 separately specifies 4th digit codes for stomach, small intenstine, colon or rectum, so to match the Other code we include ICD-10 codes for gastrointestinal injuries excluded by those</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liver injury</t>
-  </si>
-  <si>
-    <t xml:space="preserve">864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S36.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kidney injury</t>
-  </si>
-  <si>
-    <t xml:space="preserve">866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S37.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burn of head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burn of trunk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burn of leg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T24,T25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICD-9-CM 945 stands for burns of lower limbs, and doesn't specify if feet/ankle included, hence also T25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burn of multiple sites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poisoning by drugs/medicinals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">960-979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T36-T50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drowning, non-fatal submersion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">994.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Second-hand tobacco smoke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E869.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No ICD-9 code for Second-hand tobacco smoke exposure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z58.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swimming accident</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E910.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W67-W70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bathtub (near) drowning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E910.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W65,W66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other (near) drowning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E910.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accidental (near) drowning, NOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E910.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unarmed fight, brawl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E960.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Undetermined intent, poisoning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y10-Y19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Undetermined intent, firearm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y22-Y25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Household circumstances</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exclusion_index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comments_icd9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comments_icd10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">767</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">P10-P15,P52.4,P52.6,P52.8,P52.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICD-10 codes for Birth trauma plus several codes for non-traumatic brain haemorrhages that were included in ICD-9-CM 767 birth trauma due to hypoxia/anoxia (but excluding intraventricular &amp; subarachnoid haemorrhages which werent included in ICD-9-CM code 767)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P05,P07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICD-10 codes for Disorders relating to: short gestation, low birthweight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">771.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">771.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in ICD-9-CM herpes simplex is grouped with Other, but in ICD-9 it has a separate 5th digit code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P35.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">098.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A54.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">771.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P39.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">756.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">756.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">osteogenesis imperfecta has different 5th digit between ICD-9-CM and ICD-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q78.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E960.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y05,T74.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICD-9 E960.1 Rape mapped to ICD-10 codes Y05 Attempted rape and T74.2 Sexual abuse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E968.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICD-9 E968.4 criminal neglect mapped to ICD-10 Y06 Neglect and abandonment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">286–287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D65-D69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E800–E819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V01-V99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICD-9-CM Railway &amp; motor traffic accidents mapped to ICD-10 Transport accidents; ICD-10 has a broader definition which is acceptable, since these codes are used to exclude cases of genital contusions &amp; spinal cord injuries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E890–E897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X00-X09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICD-9-CM ACCIDENTS CAUSED BY FIRE AND FLAMES (but excluding Other &amp; NOS codes) mapped to ICD-10 Exposure to smoke, fire and flames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E870–E876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y60-Y69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">733.10–733.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">733.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entire 4th digit code range 733.1 refers to pathological fracture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M48.5,M80,M84.4,M90.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICD-9-CM code 733.1 for pathological fracture corresponds to multiple separate ICD-10 codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E810–E813, E815–E819b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V20-V99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICD-9 MOTOR VEHICLE TRAFFIC ACCIDENTS (E810-E819) excluding cases where child was pedestrian or cyclist; ICD-10 transport accidents except ones where victim was pedestrian or pedal cyclist (i.e. V01-V19)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">malnutrition_index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infections of the gastrointestinal tract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">009.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICD-9 Infectious colitis, enteritis and gastroenteritis, to ICD-10 A09 Other gastroenteritis and colitis of infectious and unspecified origin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuberculosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">010.0–018.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">010-018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A15-A19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A15-A19 Tuberculosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIV disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">042-044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B20-B24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B20-B24 HIV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viral hepatitis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">070.00–070.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B15-B19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malignancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140.0–208.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140-208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00-C97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypothyroidism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">243–244.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">243-244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E00-E03,E89.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E00-E03 congenital &amp; acquired hypothyroidism; E89.0 postprocedural hypothyroidism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diabetes mellitus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250.00–250.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E10-E14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parathyroid disorders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">252.0–252.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E20-E21, E89.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E20-E21 Parathyroid disorders; E89.0 Postprocedural hypoparathyroidism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disorders of the pituitary gland and its hypothalamic control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">253.0–253.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E22-E23, E89.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E22 Hyperfunction of pituitary gland; E23 Hypofunction and other disorders of pituitary gland;	E89.2 Postprocedural hypoparathyroidism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inborn errors of metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">270.0–275.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">270-275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E70-E90, D89, M10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E70-E90 Metabolic disorders; However, there's matches in other categories; D89 Other disorders involving the immune mechanism, not elsewhere classified; M10 Gout;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lactose intolerance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">271.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cystic fibrosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">277.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">277.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cystic fibrosis is 277.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mental retardation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">317–319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F70-F79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neurologic hereditary, degenerative, and other disorders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">330.0–344.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">330-344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G00-G99, R52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">this range is composed of: HEREDITARY AND DEGENERATIVE DISEASES OF THE CENTRAL NERVOUS SYSTEM (330-337);  PAIN (338); OTHER HEADACHE SYNDROMES (339); OTHER DISORDERS OF THE CENTRAL NERVOUS SYSTEM (340-349) except 348-349, which covers Other conditions of brain and 349 Other and unspecified disorders of the nervous system; not clear why those were excluded - we'll cover the entire G00-G99 range; also matches R52 Pain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intracerebral hemorrhage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polyarteritis nodosa and allied conditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">446.0–446.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M30-M31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polyarteritis nodosa and allied conditions to ICD-10 M30 Polyarteritis nodosa and related conditions and M31 Other necrotising vasculopathies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asthma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">493.00–493.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gastroesophageal reflux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">530.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">530.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">530.8 Other disorders of oesophagus = best match for ICD-9-CM Esophageal reflux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K21 Gastro-oesophageal reflux disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflammatory bowel disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">555.0–558.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">555-558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K50-K52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflammatory bowel disease: NONINFECTIOUS ENTERITIS AND COLITIS (555-558) - Noninfective enteritis and colitis (K50-K52)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biliary disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">575.0–576.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">575-576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K82-K83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K82 Other diseases of gallbladder; K83 Other diseases of biliary tract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cirrhosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">571.0–571.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K70-K76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K70-K76 Diseases of liver (K77 excluded - diseases of liver classified elsewhere)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pancreatic insufficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">577.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K86.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pancreatic insufficiency (Other specified diseases of pancreas) - K86.8 Other specified diseases of pancreas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intestinal malabsorption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">579.0–579.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K90-K91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K90 intestinal malabsorption; K91 Postprocedural disorders of digestive system, not elsewhere classified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renal tubular acidosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">588.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N25.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chronic renal insufficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">593.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">593.9, 585.9,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schnitzer gives code 593.9 Unspecified disorder of kidney and ureter, but gives description Chronic renal insufficiency, which is actually ICD-9-CM 585.9; we'll include both</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N18-N19, N28.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schnitzer specified Chronic renal insufficiency, but listed code 593.9 Disorders of kidney and ureter, unspecified; I'm assuming they mean the former, which maps to N18 &amp; possibly N19, but we'll also include N28.9 Disorder of kidney and ureter, unspecified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urinary tract infection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">599.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N39.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diffuse diseases of connective tissue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">710.0–710.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M32-M36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M32-M36 based on matching ICD-9-CM code headings to ICD-10 &amp; prefixes generated via GEMs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rheumatoid arthritis and other inflammatory polyarthropathies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">714.0–714.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note how ICD-9-CM is less specific than ICD-9!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M05-M06, M08, M12.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">based on GEMs, we also include M12.0 Chronic postrheumatic arthropathy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cardiac disease, congenital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">745.0–747.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">745-747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q20-Q28, P29.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q20-Q28 Congenital malformations of the circulatory system; also includes P29.3 Persistent foetal circulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cleft palate/cleft lip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">749.00–749.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q35-Q37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pyloric stenosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">750.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q40.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hirschsprung's disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">751.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q43.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chromosomal abnormalities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">758.0–758.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q90-Q99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fetal alcohol syndrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">760.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">760.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">760.76 Fetus/newborn affected by alcohol via placenta/breast milk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q86.0, P04.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q86.0 Fetal alcohol syndrome (dysmorphic); P04.3 Fetus and newborn affected by maternal use of alcohol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth trauma: subdural/cerebral hemorrhage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">767.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P10, P11.1, P11.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P10 Intracranial laceration and haemorrhage due to birth injury; P11.1 Other specified brain damage due to birth injury'; P11.2 Unspecified brain damage due to birth injury</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bronchopulmonary dysplasia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">770.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P27.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perinatal infections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">771.0–771.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P35-P39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intraventricular hemorrhage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">772.10–772.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">772.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">772.1 Fetal and neonatal intraventricular haemorrhage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P10.2 Intraventricular haemorrhage due to birth injury already covered above; P52 Intracranial nontraumatic haemorrhage of fetus and newborn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subarachnoid, subdural, extradural, other/unspecified, hemorrhage following injury</t>
-  </si>
-  <si>
-    <t xml:space="preserve">852.00–853.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">852-853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">852-853 traumatic intracranial haemorrhages (subarach.,subdural,extradural,other)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S063-S068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lead poisoning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">984.0–984.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T56.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480.0–487.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480-487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J10-J18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pneumonia &amp; influenza (not avian) - I excluded J09 as that's what avian influenza falls under</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490.0–491.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490,491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J40-J42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">466.0–466.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J20-J21,J68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acute bronchitis and bronchiolitis; added ICD-10 J68 respiratory conditions due to exposure to chemicals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">493.0–493.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J44-J46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">381.0–381.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H65</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="399">
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>inclusion_index</t>
+  </si>
+  <si>
+    <t>icd9cm</t>
+  </si>
+  <si>
+    <t>icd9</t>
+  </si>
+  <si>
+    <t>comment_icd9</t>
+  </si>
+  <si>
+    <t>icd10</t>
+  </si>
+  <si>
+    <t>comment_icd10</t>
+  </si>
+  <si>
+    <t>Genital herpes</t>
+  </si>
+  <si>
+    <t>054.1</t>
+  </si>
+  <si>
+    <t>A60</t>
+  </si>
+  <si>
+    <t>Gonococcal infection</t>
+  </si>
+  <si>
+    <t>098</t>
+  </si>
+  <si>
+    <t>A54</t>
+  </si>
+  <si>
+    <t>Pelvic inflammatory disease, unspecified</t>
+  </si>
+  <si>
+    <t>614.9</t>
+  </si>
+  <si>
+    <t>N73.9</t>
+  </si>
+  <si>
+    <t>Contusion of genital organs</t>
+  </si>
+  <si>
+    <t>922.4</t>
+  </si>
+  <si>
+    <t>S30.2</t>
+  </si>
+  <si>
+    <t>Observation after alleged rape</t>
+  </si>
+  <si>
+    <t>V71.5</t>
+  </si>
+  <si>
+    <t>Z04.4</t>
+  </si>
+  <si>
+    <t>Observation for abuse/neglect</t>
+  </si>
+  <si>
+    <t>V71.81</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>No ICD-9 code for Observation for abuse/neglect</t>
+  </si>
+  <si>
+    <t>No ICD-10 code for Observation and evaluation for abuse and neglect</t>
+  </si>
+  <si>
+    <t>Retinal hemorrhage</t>
+  </si>
+  <si>
+    <t>362.81</t>
+  </si>
+  <si>
+    <t>No ICD-9 code for Retinal haemorrhage</t>
+  </si>
+  <si>
+    <t>H35.6</t>
+  </si>
+  <si>
+    <t>Rib fracture</t>
+  </si>
+  <si>
+    <t>807.0, 807.1</t>
+  </si>
+  <si>
+    <t>S22.30, S22.31</t>
+  </si>
+  <si>
+    <t>Scapula fracture</t>
+  </si>
+  <si>
+    <t>811</t>
+  </si>
+  <si>
+    <t>S42.1</t>
+  </si>
+  <si>
+    <t>Traumatic subdural hemorrhage</t>
+  </si>
+  <si>
+    <t>852.2</t>
+  </si>
+  <si>
+    <t>852</t>
+  </si>
+  <si>
+    <t>S06.5</t>
+  </si>
+  <si>
+    <t>Other/unspecified intracranial hemorrhage</t>
+  </si>
+  <si>
+    <t>853.0</t>
+  </si>
+  <si>
+    <t>S06.8</t>
+  </si>
+  <si>
+    <t>Stomach injury</t>
+  </si>
+  <si>
+    <t>863.1</t>
+  </si>
+  <si>
+    <t>S36.31</t>
+  </si>
+  <si>
+    <t>Assault</t>
+  </si>
+  <si>
+    <t>E965, E966, E968.2</t>
+  </si>
+  <si>
+    <t>X93-X96, X99, Y00</t>
+  </si>
+  <si>
+    <t>Assault, NOS</t>
+  </si>
+  <si>
+    <t>E968.9</t>
+  </si>
+  <si>
+    <t>Y09</t>
+  </si>
+  <si>
+    <t>Undetermined intent, other means</t>
+  </si>
+  <si>
+    <t>E988</t>
+  </si>
+  <si>
+    <t>Y19,Y26,Y27,Y31-Y34</t>
+  </si>
+  <si>
+    <t>Several 4th digit level diagnoses in ICD-9 are 3-character codes in ICD-10</t>
+  </si>
+  <si>
+    <t>Skull vault fracture</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>S02.0</t>
+  </si>
+  <si>
+    <t>Vertebral fracture</t>
+  </si>
+  <si>
+    <t>805</t>
+  </si>
+  <si>
+    <t>S12.0,S12.1,S12.2,S12.7,S12.9,S22.0,S22.1,S32.0,S32.7</t>
+  </si>
+  <si>
+    <t>ICD-9 doesn't specify location of fractured vertebrae, so we need to pick out all possibilities in ICD-10; included are multiple fractures of spine as these will involve vertebrae fractures also</t>
+  </si>
+  <si>
+    <t>Traumatic subarachnoid hemorrhage</t>
+  </si>
+  <si>
+    <t>852.0</t>
+  </si>
+  <si>
+    <t>S06.6</t>
+  </si>
+  <si>
+    <t>Intrathoracic injury, NEC</t>
+  </si>
+  <si>
+    <t>862</t>
+  </si>
+  <si>
+    <t>S277-S279</t>
+  </si>
+  <si>
+    <t>ICD-9 code 862 excludes pneumo/hemothorax, whereas ICD-10 combines pneumo/hemothorax with intrathoracic injuries</t>
+  </si>
+  <si>
+    <t>Small intestine injury</t>
+  </si>
+  <si>
+    <t>863.2, 863.3</t>
+  </si>
+  <si>
+    <t>S36.40, S36.41</t>
+  </si>
+  <si>
+    <t>Spleen injury</t>
+  </si>
+  <si>
+    <t>865</t>
+  </si>
+  <si>
+    <t>S36.0</t>
+  </si>
+  <si>
+    <t>Spinal cord injury</t>
+  </si>
+  <si>
+    <t>952</t>
+  </si>
+  <si>
+    <t>S14.0,S14.1,S24.0,S24.1,S34.0,S34.1,T06.0,T06.1,T09.3</t>
+  </si>
+  <si>
+    <t>ICD-9 specifies location of spinal cord lesion at 4th digit level, whereas in ICD-10 spinal cord injuries at different locations have their own 3-character codes</t>
+  </si>
+  <si>
+    <t>Other severe malnutrition</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>E43</t>
+  </si>
+  <si>
+    <t>Dental caries</t>
+  </si>
+  <si>
+    <t>521.0</t>
+  </si>
+  <si>
+    <t>K02</t>
+  </si>
+  <si>
+    <t>Solar radiation dermatitis</t>
+  </si>
+  <si>
+    <t>692.7</t>
+  </si>
+  <si>
+    <t>L57.8</t>
+  </si>
+  <si>
+    <t>Pelvic fracture</t>
+  </si>
+  <si>
+    <t>808</t>
+  </si>
+  <si>
+    <t>S32.1-S32.8,T02.1</t>
+  </si>
+  <si>
+    <t>in ICD-9, pelvis fractures are grouped under a single code; in ICD-10 they are combined with lumbar spine injuries</t>
+  </si>
+  <si>
+    <t>Traumatic pneumohemothorax</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>S27.0-S27.2</t>
+  </si>
+  <si>
+    <t>see note above on pneumo/hemothorax and intrathoracic injuries above</t>
+  </si>
+  <si>
+    <t>Heart or lung injury</t>
+  </si>
+  <si>
+    <t>861</t>
+  </si>
+  <si>
+    <t>S26, S27.3-S27.6</t>
+  </si>
+  <si>
+    <t>ICD-9 specified heart &amp; lung injuries in single code; ICD-10 has separate codes, but also see note above about intrathoracic injuries</t>
+  </si>
+  <si>
+    <t>GI injury, NEC</t>
+  </si>
+  <si>
+    <t>863.8</t>
+  </si>
+  <si>
+    <t>S36.2,S36.8,S36.9</t>
+  </si>
+  <si>
+    <t>ICD-9 separately specifies 4th digit codes for stomach, small intenstine, colon or rectum, so to match the Other code we include ICD-10 codes for gastrointestinal injuries excluded by those</t>
+  </si>
+  <si>
+    <t>Liver injury</t>
+  </si>
+  <si>
+    <t>864</t>
+  </si>
+  <si>
+    <t>S36.1</t>
+  </si>
+  <si>
+    <t>Kidney injury</t>
+  </si>
+  <si>
+    <t>866</t>
+  </si>
+  <si>
+    <t>S37.0</t>
+  </si>
+  <si>
+    <t>Burn of head</t>
+  </si>
+  <si>
+    <t>941</t>
+  </si>
+  <si>
+    <t>T20</t>
+  </si>
+  <si>
+    <t>Burn of trunk</t>
+  </si>
+  <si>
+    <t>942</t>
+  </si>
+  <si>
+    <t>T21</t>
+  </si>
+  <si>
+    <t>Burn of leg</t>
+  </si>
+  <si>
+    <t>945</t>
+  </si>
+  <si>
+    <t>T24,T25</t>
+  </si>
+  <si>
+    <t>ICD-9-CM 945 stands for burns of lower limbs, and doesn't specify if feet/ankle included, hence also T25</t>
+  </si>
+  <si>
+    <t>Burn of multiple sites</t>
+  </si>
+  <si>
+    <t>946</t>
+  </si>
+  <si>
+    <t>T29</t>
+  </si>
+  <si>
+    <t>Poisoning by drugs/medicinals</t>
+  </si>
+  <si>
+    <t>960-979</t>
+  </si>
+  <si>
+    <t>T36-T50</t>
+  </si>
+  <si>
+    <t>Drowning, non-fatal submersion</t>
+  </si>
+  <si>
+    <t>994.1</t>
+  </si>
+  <si>
+    <t>T751</t>
+  </si>
+  <si>
+    <t>Second-hand tobacco smoke</t>
+  </si>
+  <si>
+    <t>E869.4</t>
+  </si>
+  <si>
+    <t>No ICD-9 code for Second-hand tobacco smoke exposure</t>
+  </si>
+  <si>
+    <t>Z58.7</t>
+  </si>
+  <si>
+    <t>Swimming accident</t>
+  </si>
+  <si>
+    <t>E910.2</t>
+  </si>
+  <si>
+    <t>W67-W70</t>
+  </si>
+  <si>
+    <t>Bathtub (near) drowning</t>
+  </si>
+  <si>
+    <t>E910.4</t>
+  </si>
+  <si>
+    <t>W65,W66</t>
+  </si>
+  <si>
+    <t>Other (near) drowning</t>
+  </si>
+  <si>
+    <t>E910.8</t>
+  </si>
+  <si>
+    <t>W73</t>
+  </si>
+  <si>
+    <t>Accidental (near) drowning, NOS</t>
+  </si>
+  <si>
+    <t>E910.9</t>
+  </si>
+  <si>
+    <t>W74</t>
+  </si>
+  <si>
+    <t>Unarmed fight, brawl</t>
+  </si>
+  <si>
+    <t>E960.0</t>
+  </si>
+  <si>
+    <t>Y04</t>
+  </si>
+  <si>
+    <t>Undetermined intent, poisoning</t>
+  </si>
+  <si>
+    <t>E980</t>
+  </si>
+  <si>
+    <t>Y10-Y19</t>
+  </si>
+  <si>
+    <t>Undetermined intent, firearm</t>
+  </si>
+  <si>
+    <t>E985</t>
+  </si>
+  <si>
+    <t>Y22-Y25</t>
+  </si>
+  <si>
+    <t>Household circumstances</t>
+  </si>
+  <si>
+    <t>V60</t>
+  </si>
+  <si>
+    <t>Z59</t>
+  </si>
+  <si>
+    <t>exclusion_index</t>
+  </si>
+  <si>
+    <t>comments_icd9</t>
+  </si>
+  <si>
+    <t>comments_icd10</t>
+  </si>
+  <si>
+    <t>767</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>P10-P15,P52.4,P52.6,P52.8,P52.9</t>
+  </si>
+  <si>
+    <t>ICD-10 codes for Birth trauma plus several codes for non-traumatic brain haemorrhages that were included in ICD-9-CM 767 birth trauma due to hypoxia/anoxia (but excluding intraventricular &amp; subarachnoid haemorrhages which werent included in ICD-9-CM code 767)</t>
+  </si>
+  <si>
+    <t>765</t>
+  </si>
+  <si>
+    <t>P05,P07</t>
+  </si>
+  <si>
+    <t>ICD-10 codes for Disorders relating to: short gestation, low birthweight</t>
+  </si>
+  <si>
+    <t>771.2</t>
+  </si>
+  <si>
+    <t>771.22</t>
+  </si>
+  <si>
+    <t>in ICD-9-CM herpes simplex is grouped with Other, but in ICD-9 it has a separate 5th digit code</t>
+  </si>
+  <si>
+    <t>P35.2</t>
+  </si>
+  <si>
+    <t>098.4</t>
+  </si>
+  <si>
+    <t>A54.3</t>
+  </si>
+  <si>
+    <t>771.6</t>
+  </si>
+  <si>
+    <t>P39.1</t>
+  </si>
+  <si>
+    <t>756.51</t>
+  </si>
+  <si>
+    <t>756.50</t>
+  </si>
+  <si>
+    <t>osteogenesis imperfecta has different 5th digit between ICD-9-CM and ICD-9</t>
+  </si>
+  <si>
+    <t>Q78.0</t>
+  </si>
+  <si>
+    <t>E960.1</t>
+  </si>
+  <si>
+    <t>Y05,T74.2</t>
+  </si>
+  <si>
+    <t>ICD-9 E960.1 Rape mapped to ICD-10 codes Y05 Attempted rape and T74.2 Sexual abuse</t>
+  </si>
+  <si>
+    <t>E968.4</t>
+  </si>
+  <si>
+    <t>Y06</t>
+  </si>
+  <si>
+    <t>ICD-9 E968.4 criminal neglect mapped to ICD-10 Y06 Neglect and abandonment</t>
+  </si>
+  <si>
+    <t>286–287</t>
+  </si>
+  <si>
+    <t>D65-D69</t>
+  </si>
+  <si>
+    <t>E800–E819</t>
+  </si>
+  <si>
+    <t>V01-V99</t>
+  </si>
+  <si>
+    <t>ICD-9-CM Railway &amp; motor traffic accidents mapped to ICD-10 Transport accidents; ICD-10 has a broader definition which is acceptable, since these codes are used to exclude cases of genital contusions &amp; spinal cord injuries</t>
+  </si>
+  <si>
+    <t>E890–E897</t>
+  </si>
+  <si>
+    <t>X00-X09</t>
+  </si>
+  <si>
+    <t>ICD-9-CM ACCIDENTS CAUSED BY FIRE AND FLAMES (but excluding Other &amp; NOS codes) mapped to ICD-10 Exposure to smoke, fire and flames</t>
+  </si>
+  <si>
+    <t>E870–E876</t>
+  </si>
+  <si>
+    <t>Y60-Y69</t>
+  </si>
+  <si>
+    <t>733.10–733.19</t>
+  </si>
+  <si>
+    <t>733.1</t>
+  </si>
+  <si>
+    <t>Entire 4th digit code range 733.1 refers to pathological fracture</t>
+  </si>
+  <si>
+    <t>M48.5,M80,M84.4,M90.7</t>
+  </si>
+  <si>
+    <t>ICD-9-CM code 733.1 for pathological fracture corresponds to multiple separate ICD-10 codes</t>
+  </si>
+  <si>
+    <t>E810–E813, E815–E819b</t>
+  </si>
+  <si>
+    <t>V20-V99</t>
+  </si>
+  <si>
+    <t>ICD-9 MOTOR VEHICLE TRAFFIC ACCIDENTS (E810-E819) excluding cases where child was pedestrian or cyclist; ICD-10 transport accidents except ones where victim was pedestrian or pedal cyclist (i.e. V01-V19)</t>
+  </si>
+  <si>
+    <t>malnutrition_index</t>
+  </si>
+  <si>
+    <t>Infections of the gastrointestinal tract</t>
+  </si>
+  <si>
+    <t>009.0</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t>ICD-9 Infectious colitis, enteritis and gastroenteritis, to ICD-10 A09 Other gastroenteritis and colitis of infectious and unspecified origin</t>
+  </si>
+  <si>
+    <t>Tuberculosis</t>
+  </si>
+  <si>
+    <t>010.0–018.9</t>
+  </si>
+  <si>
+    <t>010-018</t>
+  </si>
+  <si>
+    <t>A15-A19</t>
+  </si>
+  <si>
+    <t>A15-A19 Tuberculosis</t>
+  </si>
+  <si>
+    <t>HIV disease</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>042-044</t>
+  </si>
+  <si>
+    <t>B20-B24</t>
+  </si>
+  <si>
+    <t>B20-B24 HIV</t>
+  </si>
+  <si>
+    <t>Viral hepatitis</t>
+  </si>
+  <si>
+    <t>070.00–070.9</t>
+  </si>
+  <si>
+    <t>070</t>
+  </si>
+  <si>
+    <t>B15-B19</t>
+  </si>
+  <si>
+    <t>Malignancy</t>
+  </si>
+  <si>
+    <t>140.0–208.91</t>
+  </si>
+  <si>
+    <t>140-208</t>
+  </si>
+  <si>
+    <t>C00-C97</t>
+  </si>
+  <si>
+    <t>Hypothyroidism</t>
+  </si>
+  <si>
+    <t>243–244.9</t>
+  </si>
+  <si>
+    <t>243-244</t>
+  </si>
+  <si>
+    <t>E00-E03,E89.0</t>
+  </si>
+  <si>
+    <t>E00-E03 congenital &amp; acquired hypothyroidism; E89.0 postprocedural hypothyroidism</t>
+  </si>
+  <si>
+    <t>Diabetes mellitus</t>
+  </si>
+  <si>
+    <t>250.00–250.93</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>E10-E14</t>
+  </si>
+  <si>
+    <t>Parathyroid disorders</t>
+  </si>
+  <si>
+    <t>252.0–252.9</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>E20-E21, E89.2</t>
+  </si>
+  <si>
+    <t>E20-E21 Parathyroid disorders; E89.0 Postprocedural hypoparathyroidism</t>
+  </si>
+  <si>
+    <t>Disorders of the pituitary gland and its hypothalamic control</t>
+  </si>
+  <si>
+    <t>253.0–253.9</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>E22-E23, E89.3</t>
+  </si>
+  <si>
+    <t>E22 Hyperfunction of pituitary gland; E23 Hypofunction and other disorders of pituitary gland;	E89.2 Postprocedural hypoparathyroidism</t>
+  </si>
+  <si>
+    <t>Inborn errors of metabolism</t>
+  </si>
+  <si>
+    <t>270.0–275.9</t>
+  </si>
+  <si>
+    <t>270-275</t>
+  </si>
+  <si>
+    <t>E70-E90, D89, M10</t>
+  </si>
+  <si>
+    <t>E70-E90 Metabolic disorders; However, there's matches in other categories; D89 Other disorders involving the immune mechanism, not elsewhere classified; M10 Gout;</t>
+  </si>
+  <si>
+    <t>Lactose intolerance</t>
+  </si>
+  <si>
+    <t>271.3</t>
+  </si>
+  <si>
+    <t>E73</t>
+  </si>
+  <si>
+    <t>Cystic fibrosis</t>
+  </si>
+  <si>
+    <t>277.00</t>
+  </si>
+  <si>
+    <t>277.0</t>
+  </si>
+  <si>
+    <t>cystic fibrosis is 277.0</t>
+  </si>
+  <si>
+    <t>E84</t>
+  </si>
+  <si>
+    <t>Mental retardation</t>
+  </si>
+  <si>
+    <t>317–319</t>
+  </si>
+  <si>
+    <t>F70-F79</t>
+  </si>
+  <si>
+    <t>Neurologic hereditary, degenerative, and other disorders</t>
+  </si>
+  <si>
+    <t>330.0–344.42</t>
+  </si>
+  <si>
+    <t>330-344</t>
+  </si>
+  <si>
+    <t>G00-G99, R52</t>
+  </si>
+  <si>
+    <t>this range is composed of: HEREDITARY AND DEGENERATIVE DISEASES OF THE CENTRAL NERVOUS SYSTEM (330-337);  PAIN (338); OTHER HEADACHE SYNDROMES (339); OTHER DISORDERS OF THE CENTRAL NERVOUS SYSTEM (340-349) except 348-349, which covers Other conditions of brain and 349 Other and unspecified disorders of the nervous system; not clear why those were excluded - we'll cover the entire G00-G99 range; also matches R52 Pain</t>
+  </si>
+  <si>
+    <t>Intracerebral hemorrhage</t>
+  </si>
+  <si>
+    <t>431</t>
+  </si>
+  <si>
+    <t>I61</t>
+  </si>
+  <si>
+    <t>Polyarteritis nodosa and allied conditions</t>
+  </si>
+  <si>
+    <t>446.0–446.7</t>
+  </si>
+  <si>
+    <t>446</t>
+  </si>
+  <si>
+    <t>M30-M31</t>
+  </si>
+  <si>
+    <t>Polyarteritis nodosa and allied conditions to ICD-10 M30 Polyarteritis nodosa and related conditions and M31 Other necrotising vasculopathies</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>493.00–493.92</t>
+  </si>
+  <si>
+    <t>493</t>
+  </si>
+  <si>
+    <t>J45</t>
+  </si>
+  <si>
+    <t>Gastroesophageal reflux</t>
+  </si>
+  <si>
+    <t>530.81</t>
+  </si>
+  <si>
+    <t>530.8</t>
+  </si>
+  <si>
+    <t>530.8 Other disorders of oesophagus = best match for ICD-9-CM Esophageal reflux</t>
+  </si>
+  <si>
+    <t>K21</t>
+  </si>
+  <si>
+    <t>K21 Gastro-oesophageal reflux disease</t>
+  </si>
+  <si>
+    <t>Inflammatory bowel disease</t>
+  </si>
+  <si>
+    <t>555.0–558.9</t>
+  </si>
+  <si>
+    <t>555-558</t>
+  </si>
+  <si>
+    <t>K50-K52</t>
+  </si>
+  <si>
+    <t>Inflammatory bowel disease: NONINFECTIOUS ENTERITIS AND COLITIS (555-558) - Noninfective enteritis and colitis (K50-K52)</t>
+  </si>
+  <si>
+    <t>Biliary disease</t>
+  </si>
+  <si>
+    <t>575.0–576.9</t>
+  </si>
+  <si>
+    <t>575-576</t>
+  </si>
+  <si>
+    <t>K82-K83</t>
+  </si>
+  <si>
+    <t>K82 Other diseases of gallbladder; K83 Other diseases of biliary tract</t>
+  </si>
+  <si>
+    <t>Cirrhosis</t>
+  </si>
+  <si>
+    <t>571.0–571.9</t>
+  </si>
+  <si>
+    <t>571</t>
+  </si>
+  <si>
+    <t>K70-K76</t>
+  </si>
+  <si>
+    <t>K70-K76 Diseases of liver (K77 excluded - diseases of liver classified elsewhere)</t>
+  </si>
+  <si>
+    <t>Pancreatic insufficiency</t>
+  </si>
+  <si>
+    <t>577.8</t>
+  </si>
+  <si>
+    <t>K86.8</t>
+  </si>
+  <si>
+    <t>Pancreatic insufficiency (Other specified diseases of pancreas) - K86.8 Other specified diseases of pancreas</t>
+  </si>
+  <si>
+    <t>Intestinal malabsorption</t>
+  </si>
+  <si>
+    <t>579.0–579.9</t>
+  </si>
+  <si>
+    <t>579</t>
+  </si>
+  <si>
+    <t>K90-K91</t>
+  </si>
+  <si>
+    <t>K90 intestinal malabsorption; K91 Postprocedural disorders of digestive system, not elsewhere classified</t>
+  </si>
+  <si>
+    <t>Renal tubular acidosis</t>
+  </si>
+  <si>
+    <t>588.8</t>
+  </si>
+  <si>
+    <t>N25.8</t>
+  </si>
+  <si>
+    <t>Chronic renal insufficiency</t>
+  </si>
+  <si>
+    <t>593.9</t>
+  </si>
+  <si>
+    <t>593.9, 585.9,</t>
+  </si>
+  <si>
+    <t>Schnitzer gives code 593.9 Unspecified disorder of kidney and ureter, but gives description Chronic renal insufficiency, which is actually ICD-9-CM 585.9; we'll include both</t>
+  </si>
+  <si>
+    <t>N18-N19, N28.9</t>
+  </si>
+  <si>
+    <t>Schnitzer specified Chronic renal insufficiency, but listed code 593.9 Disorders of kidney and ureter, unspecified; I'm assuming they mean the former, which maps to N18 &amp; possibly N19, but we'll also include N28.9 Disorder of kidney and ureter, unspecified</t>
+  </si>
+  <si>
+    <t>Urinary tract infection</t>
+  </si>
+  <si>
+    <t>599.0</t>
+  </si>
+  <si>
+    <t>N39.0</t>
+  </si>
+  <si>
+    <t>Diffuse diseases of connective tissue</t>
+  </si>
+  <si>
+    <t>710.0–710.9</t>
+  </si>
+  <si>
+    <t>710</t>
+  </si>
+  <si>
+    <t>M32-M36</t>
+  </si>
+  <si>
+    <t>M32-M36 based on matching ICD-9-CM code headings to ICD-10 &amp; prefixes generated via GEMs</t>
+  </si>
+  <si>
+    <t>Rheumatoid arthritis and other inflammatory polyarthropathies</t>
+  </si>
+  <si>
+    <t>714.0–714.9</t>
+  </si>
+  <si>
+    <t>714</t>
+  </si>
+  <si>
+    <t>note how ICD-9-CM is less specific than ICD-9!</t>
+  </si>
+  <si>
+    <t>M05-M06, M08, M12.0</t>
+  </si>
+  <si>
+    <t>based on GEMs, we also include M12.0 Chronic postrheumatic arthropathy</t>
+  </si>
+  <si>
+    <t>Cardiac disease, congenital</t>
+  </si>
+  <si>
+    <t>745.0–747.9</t>
+  </si>
+  <si>
+    <t>745-747</t>
+  </si>
+  <si>
+    <t>Q20-Q28, P29.3</t>
+  </si>
+  <si>
+    <t>Q20-Q28 Congenital malformations of the circulatory system; also includes P29.3 Persistent foetal circulation</t>
+  </si>
+  <si>
+    <t>Cleft palate/cleft lip</t>
+  </si>
+  <si>
+    <t>749.00–749.25</t>
+  </si>
+  <si>
+    <t>749</t>
+  </si>
+  <si>
+    <t>Q35-Q37</t>
+  </si>
+  <si>
+    <t>Pyloric stenosis</t>
+  </si>
+  <si>
+    <t>750.5</t>
+  </si>
+  <si>
+    <t>Q40.0</t>
+  </si>
+  <si>
+    <t>Hirschsprung's disease</t>
+  </si>
+  <si>
+    <t>751.3</t>
+  </si>
+  <si>
+    <t>Q43.1</t>
+  </si>
+  <si>
+    <t>Chromosomal abnormalities</t>
+  </si>
+  <si>
+    <t>758.0–758.9</t>
+  </si>
+  <si>
+    <t>758</t>
+  </si>
+  <si>
+    <t>Q90-Q99</t>
+  </si>
+  <si>
+    <t>Fetal alcohol syndrome</t>
+  </si>
+  <si>
+    <t>760.71</t>
+  </si>
+  <si>
+    <t>760.76</t>
+  </si>
+  <si>
+    <t>760.76 Fetus/newborn affected by alcohol via placenta/breast milk</t>
+  </si>
+  <si>
+    <t>Q86.0, P04.3</t>
+  </si>
+  <si>
+    <t>Q86.0 Fetal alcohol syndrome (dysmorphic); P04.3 Fetus and newborn affected by maternal use of alcohol</t>
+  </si>
+  <si>
+    <t>Birth trauma: subdural/cerebral hemorrhage</t>
+  </si>
+  <si>
+    <t>767.0</t>
+  </si>
+  <si>
+    <t>P10, P11.1, P11.2</t>
+  </si>
+  <si>
+    <t>P10 Intracranial laceration and haemorrhage due to birth injury; P11.1 Other specified brain damage due to birth injury'; P11.2 Unspecified brain damage due to birth injury</t>
+  </si>
+  <si>
+    <t>Bronchopulmonary dysplasia</t>
+  </si>
+  <si>
+    <t>770.7</t>
+  </si>
+  <si>
+    <t>P27.1</t>
+  </si>
+  <si>
+    <t>Perinatal infections</t>
+  </si>
+  <si>
+    <t>771.0–771.89</t>
+  </si>
+  <si>
+    <t>771</t>
+  </si>
+  <si>
+    <t>P35-P39</t>
+  </si>
+  <si>
+    <t>Intraventricular hemorrhage</t>
+  </si>
+  <si>
+    <t>772.10–772.14</t>
+  </si>
+  <si>
+    <t>772.1</t>
+  </si>
+  <si>
+    <t>772.1 Fetal and neonatal intraventricular haemorrhage</t>
+  </si>
+  <si>
+    <t>P52</t>
+  </si>
+  <si>
+    <t>P10.2 Intraventricular haemorrhage due to birth injury already covered above; P52 Intracranial nontraumatic haemorrhage of fetus and newborn</t>
+  </si>
+  <si>
+    <t>Subarachnoid, subdural, extradural, other/unspecified, hemorrhage following injury</t>
+  </si>
+  <si>
+    <t>852.00–853.19</t>
+  </si>
+  <si>
+    <t>852-853</t>
+  </si>
+  <si>
+    <t>852-853 traumatic intracranial haemorrhages (subarach.,subdural,extradural,other)</t>
+  </si>
+  <si>
+    <t>S063-S068</t>
+  </si>
+  <si>
+    <t>Lead poisoning</t>
+  </si>
+  <si>
+    <t>984.0–984.9</t>
+  </si>
+  <si>
+    <t>984</t>
+  </si>
+  <si>
+    <t>T56.0</t>
+  </si>
+  <si>
+    <t>480.0–487.8</t>
+  </si>
+  <si>
+    <t>480-487</t>
+  </si>
+  <si>
+    <t>J10-J18</t>
+  </si>
+  <si>
+    <t>pneumonia &amp; influenza (not avian) - I excluded J09 as that's what avian influenza falls under</t>
+  </si>
+  <si>
+    <t>490.0–491.9</t>
+  </si>
+  <si>
+    <t>490,491</t>
+  </si>
+  <si>
+    <t>J40-J42</t>
+  </si>
+  <si>
+    <t>466.0–466.19</t>
+  </si>
+  <si>
+    <t>466</t>
+  </si>
+  <si>
+    <t>J20-J21,J68</t>
+  </si>
+  <si>
+    <t>Acute bronchitis and bronchiolitis; added ICD-10 J68 respiratory conditions due to exposure to chemicals</t>
+  </si>
+  <si>
+    <t>493.0–493.9</t>
+  </si>
+  <si>
+    <t>J44-J46</t>
+  </si>
+  <si>
+    <t>381.0–381.4</t>
+  </si>
+  <si>
+    <t>H65</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1255,6 +1262,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1536,14 +1552,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1566,11 +1587,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -1579,17 +1600,15 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2"/>
       <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="G2"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
@@ -1598,17 +1617,15 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3"/>
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3"/>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
@@ -1617,17 +1634,15 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4"/>
       <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="G4"/>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
@@ -1636,17 +1651,15 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5"/>
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5"/>
-    </row>
-    <row r="6">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
@@ -1655,17 +1668,15 @@
       <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E6"/>
       <c r="F6" t="s">
         <v>21</v>
       </c>
-      <c r="G6"/>
-    </row>
-    <row r="7">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
@@ -1684,11 +1695,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -1703,13 +1714,12 @@
       <c r="F8" t="s">
         <v>30</v>
       </c>
-      <c r="G8"/>
-    </row>
-    <row r="9">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
@@ -1718,17 +1728,15 @@
       <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9"/>
       <c r="F9" t="s">
         <v>33</v>
       </c>
-      <c r="G9"/>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
@@ -1737,17 +1745,15 @@
       <c r="D10" t="s">
         <v>35</v>
       </c>
-      <c r="E10"/>
       <c r="F10" t="s">
         <v>36</v>
       </c>
-      <c r="G10"/>
-    </row>
-    <row r="11">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>37</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
@@ -1756,17 +1762,15 @@
       <c r="D11" t="s">
         <v>39</v>
       </c>
-      <c r="E11"/>
       <c r="F11" t="s">
         <v>40</v>
       </c>
-      <c r="G11"/>
-    </row>
-    <row r="12">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
@@ -1775,17 +1779,15 @@
       <c r="D12" t="s">
         <v>42</v>
       </c>
-      <c r="E12"/>
       <c r="F12" t="s">
         <v>43</v>
       </c>
-      <c r="G12"/>
-    </row>
-    <row r="13">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
@@ -1794,17 +1796,15 @@
       <c r="D13" t="s">
         <v>45</v>
       </c>
-      <c r="E13"/>
       <c r="F13" t="s">
         <v>46</v>
       </c>
-      <c r="G13"/>
-    </row>
-    <row r="14">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
@@ -1813,17 +1813,15 @@
       <c r="D14" t="s">
         <v>48</v>
       </c>
-      <c r="E14"/>
       <c r="F14" t="s">
         <v>49</v>
       </c>
-      <c r="G14"/>
-    </row>
-    <row r="15">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>50</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>14</v>
       </c>
       <c r="C15" t="s">
@@ -1832,17 +1830,15 @@
       <c r="D15" t="s">
         <v>51</v>
       </c>
-      <c r="E15"/>
       <c r="F15" t="s">
         <v>52</v>
       </c>
-      <c r="G15"/>
-    </row>
-    <row r="16">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>53</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>15</v>
       </c>
       <c r="C16" t="s">
@@ -1851,7 +1847,6 @@
       <c r="D16" t="s">
         <v>54</v>
       </c>
-      <c r="E16"/>
       <c r="F16" t="s">
         <v>55</v>
       </c>
@@ -1859,11 +1854,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>57</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>16</v>
       </c>
       <c r="C17" t="s">
@@ -1872,17 +1867,15 @@
       <c r="D17" t="s">
         <v>58</v>
       </c>
-      <c r="E17"/>
       <c r="F17" t="s">
         <v>59</v>
       </c>
-      <c r="G17"/>
-    </row>
-    <row r="18">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>60</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>17</v>
       </c>
       <c r="C18" t="s">
@@ -1891,7 +1884,6 @@
       <c r="D18" t="s">
         <v>61</v>
       </c>
-      <c r="E18"/>
       <c r="F18" t="s">
         <v>62</v>
       </c>
@@ -1899,11 +1891,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>64</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>18</v>
       </c>
       <c r="C19" t="s">
@@ -1912,17 +1904,15 @@
       <c r="D19" t="s">
         <v>39</v>
       </c>
-      <c r="E19"/>
       <c r="F19" t="s">
         <v>66</v>
       </c>
-      <c r="G19"/>
-    </row>
-    <row r="20">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>67</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>19</v>
       </c>
       <c r="C20" t="s">
@@ -1931,7 +1921,6 @@
       <c r="D20" t="s">
         <v>68</v>
       </c>
-      <c r="E20"/>
       <c r="F20" t="s">
         <v>69</v>
       </c>
@@ -1939,11 +1928,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>71</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>20</v>
       </c>
       <c r="C21" t="s">
@@ -1952,17 +1941,15 @@
       <c r="D21" t="s">
         <v>72</v>
       </c>
-      <c r="E21"/>
       <c r="F21" t="s">
         <v>73</v>
       </c>
-      <c r="G21"/>
-    </row>
-    <row r="22">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>74</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>21</v>
       </c>
       <c r="C22" t="s">
@@ -1971,17 +1958,15 @@
       <c r="D22" t="s">
         <v>75</v>
       </c>
-      <c r="E22"/>
       <c r="F22" t="s">
         <v>76</v>
       </c>
-      <c r="G22"/>
-    </row>
-    <row r="23">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>77</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>22</v>
       </c>
       <c r="C23" t="s">
@@ -1990,7 +1975,6 @@
       <c r="D23" t="s">
         <v>78</v>
       </c>
-      <c r="E23"/>
       <c r="F23" t="s">
         <v>79</v>
       </c>
@@ -1998,11 +1982,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>81</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>23</v>
       </c>
       <c r="C24" t="s">
@@ -2011,17 +1995,15 @@
       <c r="D24" t="s">
         <v>82</v>
       </c>
-      <c r="E24"/>
       <c r="F24" t="s">
         <v>83</v>
       </c>
-      <c r="G24"/>
-    </row>
-    <row r="25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>84</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>24</v>
       </c>
       <c r="C25" t="s">
@@ -2030,17 +2012,15 @@
       <c r="D25" t="s">
         <v>85</v>
       </c>
-      <c r="E25"/>
       <c r="F25" t="s">
         <v>86</v>
       </c>
-      <c r="G25"/>
-    </row>
-    <row r="26">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>87</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>25</v>
       </c>
       <c r="C26" t="s">
@@ -2049,17 +2029,15 @@
       <c r="D26" t="s">
         <v>88</v>
       </c>
-      <c r="E26"/>
       <c r="F26" t="s">
         <v>89</v>
       </c>
-      <c r="G26"/>
-    </row>
-    <row r="27">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>90</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>26</v>
       </c>
       <c r="C27" t="s">
@@ -2068,7 +2046,6 @@
       <c r="D27" t="s">
         <v>91</v>
       </c>
-      <c r="E27"/>
       <c r="F27" t="s">
         <v>92</v>
       </c>
@@ -2076,11 +2053,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>94</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>27</v>
       </c>
       <c r="C28" t="s">
@@ -2089,7 +2066,6 @@
       <c r="D28" t="s">
         <v>95</v>
       </c>
-      <c r="E28"/>
       <c r="F28" t="s">
         <v>96</v>
       </c>
@@ -2097,11 +2073,11 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>98</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>28</v>
       </c>
       <c r="C29" t="s">
@@ -2110,7 +2086,6 @@
       <c r="D29" t="s">
         <v>99</v>
       </c>
-      <c r="E29"/>
       <c r="F29" t="s">
         <v>100</v>
       </c>
@@ -2118,11 +2093,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>102</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>29</v>
       </c>
       <c r="C30" t="s">
@@ -2131,7 +2106,6 @@
       <c r="D30" t="s">
         <v>103</v>
       </c>
-      <c r="E30"/>
       <c r="F30" t="s">
         <v>104</v>
       </c>
@@ -2139,11 +2113,11 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>106</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>30</v>
       </c>
       <c r="C31" t="s">
@@ -2152,17 +2126,15 @@
       <c r="D31" t="s">
         <v>107</v>
       </c>
-      <c r="E31"/>
       <c r="F31" t="s">
         <v>108</v>
       </c>
-      <c r="G31"/>
-    </row>
-    <row r="32">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>109</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>31</v>
       </c>
       <c r="C32" t="s">
@@ -2171,17 +2143,15 @@
       <c r="D32" t="s">
         <v>110</v>
       </c>
-      <c r="E32"/>
       <c r="F32" t="s">
         <v>111</v>
       </c>
-      <c r="G32"/>
-    </row>
-    <row r="33">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>112</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>32</v>
       </c>
       <c r="C33" t="s">
@@ -2190,17 +2160,15 @@
       <c r="D33" t="s">
         <v>113</v>
       </c>
-      <c r="E33"/>
       <c r="F33" t="s">
         <v>114</v>
       </c>
-      <c r="G33"/>
-    </row>
-    <row r="34">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>115</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>33</v>
       </c>
       <c r="C34" t="s">
@@ -2209,17 +2177,15 @@
       <c r="D34" t="s">
         <v>116</v>
       </c>
-      <c r="E34"/>
       <c r="F34" t="s">
         <v>117</v>
       </c>
-      <c r="G34"/>
-    </row>
-    <row r="35">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>118</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>34</v>
       </c>
       <c r="C35" t="s">
@@ -2228,7 +2194,6 @@
       <c r="D35" t="s">
         <v>119</v>
       </c>
-      <c r="E35"/>
       <c r="F35" t="s">
         <v>120</v>
       </c>
@@ -2236,11 +2201,11 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>122</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>35</v>
       </c>
       <c r="C36" t="s">
@@ -2249,17 +2214,15 @@
       <c r="D36" t="s">
         <v>123</v>
       </c>
-      <c r="E36"/>
       <c r="F36" t="s">
         <v>124</v>
       </c>
-      <c r="G36"/>
-    </row>
-    <row r="37">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>125</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>36</v>
       </c>
       <c r="C37" t="s">
@@ -2268,17 +2231,15 @@
       <c r="D37" t="s">
         <v>126</v>
       </c>
-      <c r="E37"/>
       <c r="F37" t="s">
         <v>127</v>
       </c>
-      <c r="G37"/>
-    </row>
-    <row r="38">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>128</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>37</v>
       </c>
       <c r="C38" t="s">
@@ -2287,17 +2248,15 @@
       <c r="D38" t="s">
         <v>129</v>
       </c>
-      <c r="E38"/>
       <c r="F38" t="s">
         <v>130</v>
       </c>
-      <c r="G38"/>
-    </row>
-    <row r="39">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>131</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>38</v>
       </c>
       <c r="C39" t="s">
@@ -2312,13 +2271,12 @@
       <c r="F39" t="s">
         <v>134</v>
       </c>
-      <c r="G39"/>
-    </row>
-    <row r="40">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>135</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>39</v>
       </c>
       <c r="C40" t="s">
@@ -2327,17 +2285,15 @@
       <c r="D40" t="s">
         <v>136</v>
       </c>
-      <c r="E40"/>
       <c r="F40" t="s">
         <v>137</v>
       </c>
-      <c r="G40"/>
-    </row>
-    <row r="41">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>138</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>40</v>
       </c>
       <c r="C41" t="s">
@@ -2346,17 +2302,15 @@
       <c r="D41" t="s">
         <v>139</v>
       </c>
-      <c r="E41"/>
       <c r="F41" t="s">
         <v>140</v>
       </c>
-      <c r="G41"/>
-    </row>
-    <row r="42">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>141</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>41</v>
       </c>
       <c r="C42" t="s">
@@ -2365,17 +2319,15 @@
       <c r="D42" t="s">
         <v>142</v>
       </c>
-      <c r="E42"/>
       <c r="F42" t="s">
         <v>143</v>
       </c>
-      <c r="G42"/>
-    </row>
-    <row r="43">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>144</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>42</v>
       </c>
       <c r="C43" t="s">
@@ -2384,17 +2336,15 @@
       <c r="D43" t="s">
         <v>145</v>
       </c>
-      <c r="E43"/>
       <c r="F43" t="s">
         <v>146</v>
       </c>
-      <c r="G43"/>
-    </row>
-    <row r="44">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>147</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>43</v>
       </c>
       <c r="C44" t="s">
@@ -2403,17 +2353,15 @@
       <c r="D44" t="s">
         <v>148</v>
       </c>
-      <c r="E44"/>
       <c r="F44" t="s">
         <v>149</v>
       </c>
-      <c r="G44"/>
-    </row>
-    <row r="45">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>150</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>44</v>
       </c>
       <c r="C45" t="s">
@@ -2422,17 +2370,15 @@
       <c r="D45" t="s">
         <v>151</v>
       </c>
-      <c r="E45"/>
       <c r="F45" t="s">
         <v>152</v>
       </c>
-      <c r="G45"/>
-    </row>
-    <row r="46">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>153</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>45</v>
       </c>
       <c r="C46" t="s">
@@ -2441,17 +2387,15 @@
       <c r="D46" t="s">
         <v>154</v>
       </c>
-      <c r="E46"/>
       <c r="F46" t="s">
         <v>155</v>
       </c>
-      <c r="G46"/>
-    </row>
-    <row r="47">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>156</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>46</v>
       </c>
       <c r="C47" t="s">
@@ -2460,27 +2404,25 @@
       <c r="D47" t="s">
         <v>157</v>
       </c>
-      <c r="E47"/>
       <c r="F47" t="s">
         <v>158</v>
       </c>
-      <c r="G47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>159</v>
       </c>
@@ -2503,11 +2445,11 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>8</v>
       </c>
       <c r="C2" t="s">
@@ -2526,11 +2468,11 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>9</v>
       </c>
       <c r="C3" t="s">
@@ -2549,11 +2491,11 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>16</v>
       </c>
       <c r="C4" t="s">
@@ -2572,11 +2514,11 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>17</v>
       </c>
       <c r="C5" t="s">
@@ -2595,11 +2537,11 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>26</v>
       </c>
       <c r="C6" t="s">
@@ -2618,11 +2560,11 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>8</v>
       </c>
       <c r="C7" t="s">
@@ -2641,11 +2583,11 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>9</v>
       </c>
       <c r="C8" t="s">
@@ -2664,11 +2606,11 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>16</v>
       </c>
       <c r="C9" t="s">
@@ -2687,11 +2629,11 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>17</v>
       </c>
       <c r="C10" t="s">
@@ -2710,11 +2652,11 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>2</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>26</v>
       </c>
       <c r="C11" t="s">
@@ -2733,11 +2675,11 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
@@ -2756,11 +2698,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>4</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
@@ -2779,11 +2721,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>5</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
@@ -2802,11 +2744,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>6</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>8</v>
       </c>
       <c r="C15" t="s">
@@ -2825,11 +2767,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>6</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>9</v>
       </c>
       <c r="C16" t="s">
@@ -2848,11 +2790,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>6</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>16</v>
       </c>
       <c r="C17" t="s">
@@ -2871,11 +2813,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>6</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>17</v>
       </c>
       <c r="C18" t="s">
@@ -2894,11 +2836,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>6</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>26</v>
       </c>
       <c r="C19" t="s">
@@ -2917,11 +2859,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>7</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>13</v>
       </c>
       <c r="C20" t="s">
@@ -2940,11 +2882,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>7</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>14</v>
       </c>
       <c r="C21" t="s">
@@ -2963,11 +2905,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>7</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>43</v>
       </c>
       <c r="C22" t="s">
@@ -2986,11 +2928,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>8</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>13</v>
       </c>
       <c r="C23" t="s">
@@ -3009,11 +2951,11 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>8</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>14</v>
       </c>
       <c r="C24" t="s">
@@ -3032,11 +2974,11 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>8</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>43</v>
       </c>
       <c r="C25" t="s">
@@ -3055,11 +2997,11 @@
         <v>186</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>9</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>4</v>
       </c>
       <c r="C26" t="s">
@@ -3078,11 +3020,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>9</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>7</v>
       </c>
       <c r="C27" t="s">
@@ -3101,11 +3043,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>9</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>10</v>
       </c>
       <c r="C28" t="s">
@@ -3124,11 +3066,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>9</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>11</v>
       </c>
       <c r="C29" t="s">
@@ -3147,11 +3089,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>9</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>18</v>
       </c>
       <c r="C30" t="s">
@@ -3170,11 +3112,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>10</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>4</v>
       </c>
       <c r="C31" t="s">
@@ -3193,11 +3135,11 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>10</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>22</v>
       </c>
       <c r="C32" t="s">
@@ -3216,11 +3158,11 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>11</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>32</v>
       </c>
       <c r="C33" t="s">
@@ -3239,11 +3181,11 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>11</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>33</v>
       </c>
       <c r="C34" t="s">
@@ -3262,11 +3204,11 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>11</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>34</v>
       </c>
       <c r="C35" t="s">
@@ -3285,11 +3227,11 @@
         <v>194</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>11</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>35</v>
       </c>
       <c r="C36" t="s">
@@ -3308,11 +3250,11 @@
         <v>194</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>12</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>36</v>
       </c>
       <c r="C37" t="s">
@@ -3331,11 +3273,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>13</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>8</v>
       </c>
       <c r="C38" t="s">
@@ -3354,11 +3296,11 @@
         <v>201</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>13</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>9</v>
       </c>
       <c r="C39" t="s">
@@ -3377,11 +3319,11 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>13</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>16</v>
       </c>
       <c r="C40" t="s">
@@ -3400,11 +3342,11 @@
         <v>201</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>13</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>17</v>
       </c>
       <c r="C41" t="s">
@@ -3423,11 +3365,11 @@
         <v>201</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>13</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>26</v>
       </c>
       <c r="C42" t="s">
@@ -3446,11 +3388,11 @@
         <v>201</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>14</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>7</v>
       </c>
       <c r="C43" t="s">
@@ -3469,11 +3411,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>14</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>8</v>
       </c>
       <c r="C44" t="s">
@@ -3492,11 +3434,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>14</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>9</v>
       </c>
       <c r="C45" t="s">
@@ -3515,11 +3457,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>14</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>10</v>
       </c>
       <c r="C46" t="s">
@@ -3538,11 +3480,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>14</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>11</v>
       </c>
       <c r="C47" t="s">
@@ -3561,11 +3503,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>14</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>12</v>
       </c>
       <c r="C48" t="s">
@@ -3584,11 +3526,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>14</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>16</v>
       </c>
       <c r="C49" t="s">
@@ -3607,11 +3549,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>14</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>17</v>
       </c>
       <c r="C50" t="s">
@@ -3630,11 +3572,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>14</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>18</v>
       </c>
       <c r="C51" t="s">
@@ -3653,11 +3595,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
         <v>14</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>19</v>
       </c>
       <c r="C52" t="s">
@@ -3676,11 +3618,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
         <v>14</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>20</v>
       </c>
       <c r="C53" t="s">
@@ -3699,11 +3641,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
         <v>14</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>21</v>
       </c>
       <c r="C54" t="s">
@@ -3722,11 +3664,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
         <v>14</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>26</v>
       </c>
       <c r="C55" t="s">
@@ -3745,11 +3687,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
         <v>14</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>27</v>
       </c>
       <c r="C56" t="s">
@@ -3768,11 +3710,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
         <v>14</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>28</v>
       </c>
       <c r="C57" t="s">
@@ -3791,11 +3733,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
         <v>14</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>29</v>
       </c>
       <c r="C58" t="s">
@@ -3814,11 +3756,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
         <v>14</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>30</v>
       </c>
       <c r="C59" t="s">
@@ -3837,11 +3779,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
         <v>14</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>31</v>
       </c>
       <c r="C60" t="s">
@@ -3862,19 +3804,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3897,11 +3839,11 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>206</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -3920,11 +3862,11 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
@@ -3943,11 +3885,11 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>215</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
@@ -3966,11 +3908,11 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>220</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
@@ -3989,11 +3931,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>224</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
@@ -4012,11 +3954,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>228</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
@@ -4035,11 +3977,11 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>233</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -4058,11 +4000,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>237</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
@@ -4081,11 +4023,11 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>242</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
@@ -4104,11 +4046,11 @@
         <v>246</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>247</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
@@ -4127,11 +4069,11 @@
         <v>251</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>252</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
@@ -4150,11 +4092,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>255</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
@@ -4173,11 +4115,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>260</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
@@ -4196,11 +4138,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>263</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>14</v>
       </c>
       <c r="C15" t="s">
@@ -4219,11 +4161,11 @@
         <v>267</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>268</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>15</v>
       </c>
       <c r="C16" t="s">
@@ -4242,11 +4184,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>271</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>16</v>
       </c>
       <c r="C17" t="s">
@@ -4265,11 +4207,11 @@
         <v>275</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>276</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>17</v>
       </c>
       <c r="C18" t="s">
@@ -4288,11 +4230,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>280</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>18</v>
       </c>
       <c r="C19" t="s">
@@ -4311,11 +4253,11 @@
         <v>285</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>286</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>19</v>
       </c>
       <c r="C20" t="s">
@@ -4334,11 +4276,11 @@
         <v>290</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>291</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>20</v>
       </c>
       <c r="C21" t="s">
@@ -4357,11 +4299,11 @@
         <v>295</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>296</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>21</v>
       </c>
       <c r="C22" t="s">
@@ -4380,11 +4322,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>301</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>22</v>
       </c>
       <c r="C23" t="s">
@@ -4403,11 +4345,11 @@
         <v>304</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>305</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>23</v>
       </c>
       <c r="C24" t="s">
@@ -4426,11 +4368,11 @@
         <v>309</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>310</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>24</v>
       </c>
       <c r="C25" t="s">
@@ -4449,11 +4391,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>313</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>25</v>
       </c>
       <c r="C26" t="s">
@@ -4472,11 +4414,11 @@
         <v>318</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>319</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>26</v>
       </c>
       <c r="C27" t="s">
@@ -4495,11 +4437,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>322</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>27</v>
       </c>
       <c r="C28" t="s">
@@ -4518,11 +4460,11 @@
         <v>326</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>327</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>28</v>
       </c>
       <c r="C29" t="s">
@@ -4541,11 +4483,11 @@
         <v>332</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>333</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>29</v>
       </c>
       <c r="C30" t="s">
@@ -4564,11 +4506,11 @@
         <v>337</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>338</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>30</v>
       </c>
       <c r="C31" t="s">
@@ -4587,11 +4529,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>342</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>31</v>
       </c>
       <c r="C32" t="s">
@@ -4610,11 +4552,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>345</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>32</v>
       </c>
       <c r="C33" t="s">
@@ -4633,11 +4575,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>348</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>33</v>
       </c>
       <c r="C34" t="s">
@@ -4656,11 +4598,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>352</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>34</v>
       </c>
       <c r="C35" t="s">
@@ -4679,11 +4621,11 @@
         <v>357</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>358</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>35</v>
       </c>
       <c r="C36" t="s">
@@ -4702,11 +4644,11 @@
         <v>361</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>362</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>36</v>
       </c>
       <c r="C37" t="s">
@@ -4725,11 +4667,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>365</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>37</v>
       </c>
       <c r="C38" t="s">
@@ -4748,11 +4690,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>369</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>38</v>
       </c>
       <c r="C39" t="s">
@@ -4771,11 +4713,11 @@
         <v>374</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>375</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>39</v>
       </c>
       <c r="C40" t="s">
@@ -4794,11 +4736,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>380</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>40</v>
       </c>
       <c r="C41" t="s">
@@ -4819,19 +4761,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4851,8 +4793,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>38</v>
       </c>
       <c r="B2" t="s">
@@ -4871,8 +4813,8 @@
         <v>387</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>38</v>
       </c>
       <c r="B3" t="s">
@@ -4891,8 +4833,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>38</v>
       </c>
       <c r="B4" t="s">
@@ -4911,8 +4853,8 @@
         <v>394</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>38</v>
       </c>
       <c r="B5" t="s">
@@ -4931,8 +4873,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>38</v>
       </c>
       <c r="B6" t="s">
@@ -4953,6 +4895,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>